--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/计算机设备/计算机设备行业.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/计算机设备/计算机设备行业.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13340"/>
+    <workbookView windowWidth="27240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>名称</t>
   </si>
@@ -38,6 +38,9 @@
     <t>所有者权益</t>
   </si>
   <si>
+    <t>所有者权益增长率</t>
+  </si>
+  <si>
     <t>归母所有者权益</t>
   </si>
   <si>
@@ -63,10 +66,13 @@
     <t>利润总额</t>
   </si>
   <si>
+    <t>利润总额增长率</t>
+  </si>
+  <si>
     <t>营业利润</t>
   </si>
   <si>
-    <t>营业利润百分比</t>
+    <t>营业利润增长率</t>
   </si>
   <si>
     <t>财务费用</t>
@@ -93,6 +99,12 @@
     <t>投入资本回报率</t>
   </si>
   <si>
+    <t>营业利润占总投入资本的比例</t>
+  </si>
+  <si>
+    <t>有息债务占总投入资本的比值</t>
+  </si>
+  <si>
     <t>保险合同准备金</t>
   </si>
   <si>
@@ -111,6 +123,9 @@
     <t>短期借款</t>
   </si>
   <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
     <t>以公允价值计量且变动计入当期损益的金融负债</t>
   </si>
   <si>
@@ -139,6 +154,10 @@
   </si>
   <si>
     <t>拆出资金</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计
+入当期损益的金融资产</t>
   </si>
   <si>
     <t>交易性金融资产</t>
@@ -152,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -186,9 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,8 +234,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -218,23 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,29 +321,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,43 +342,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -421,31 +454,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,19 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,103 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,9 +687,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,21 +746,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,35 +767,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,152 +778,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +947,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,18 +981,27 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,37 +1011,49 @@
     <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1072,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,14 +1396,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AT27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1354,343 +1414,1232 @@
     <col min="4" max="4" width="15.1538461538462" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.1538461538462" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7692307692308" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.4615384615385" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.4615384615385" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5384615384615" style="3" customWidth="1"/>
-    <col min="15" max="15" width="52.6923076923077" style="3" customWidth="1"/>
-    <col min="16" max="16" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.2307692307692" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="20" max="20" width="21.2307692307692" style="3" customWidth="1"/>
-    <col min="21" max="21" width="23.6153846153846" style="3" customWidth="1"/>
-    <col min="22" max="22" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="23" max="23" width="14.5384615384615" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.7692307692308" style="3" customWidth="1"/>
-    <col min="26" max="26" width="16.3846153846154" style="4" customWidth="1"/>
-    <col min="27" max="27" width="21.2307692307692" style="4" customWidth="1"/>
-    <col min="28" max="28" width="18.7692307692308" style="5" customWidth="1"/>
-    <col min="29" max="29" width="18.7692307692308" style="2" customWidth="1"/>
-    <col min="30" max="30" width="18.7692307692308" style="6" customWidth="1"/>
-    <col min="31" max="31" width="16.2307692307692" style="3" customWidth="1"/>
-    <col min="32" max="32" width="17.6153846153846" style="2" customWidth="1"/>
-    <col min="33" max="33" width="15.3076923076923" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.9230769230769" style="3" customWidth="1"/>
-    <col min="35" max="35" width="9.23076923076923" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.9230769230769" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="38" max="38" width="16.3846153846154" style="3" customWidth="1"/>
-    <col min="39" max="39" width="11.5384615384615" style="3" customWidth="1"/>
-    <col min="40" max="40" width="17.6153846153846" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.7692307692308" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7692307692308" style="3" customWidth="1"/>
+    <col min="11" max="12" width="16.2307692307692" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.4615384615385" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.7692307692308" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.5384615384615" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.7692307692308" style="3" customWidth="1"/>
+    <col min="17" max="17" width="52.6923076923077" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.3846153846154" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.2307692307692" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.7692307692308" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.3846153846154" style="3" customWidth="1"/>
+    <col min="22" max="22" width="21.2307692307692" style="3" customWidth="1"/>
+    <col min="23" max="23" width="23.6153846153846" style="3" customWidth="1"/>
+    <col min="24" max="24" width="16.3846153846154" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.3076923076923" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.5384615384615" style="3" customWidth="1"/>
+    <col min="27" max="27" width="12.3076923076923" style="3" customWidth="1"/>
+    <col min="28" max="28" width="18.7692307692308" style="3" customWidth="1"/>
+    <col min="29" max="29" width="20.9230769230769" style="4" customWidth="1"/>
+    <col min="30" max="30" width="21.2307692307692" style="4" customWidth="1"/>
+    <col min="31" max="31" width="18.7692307692308" style="5" customWidth="1"/>
+    <col min="32" max="32" width="18.7692307692308" style="2" customWidth="1"/>
+    <col min="33" max="33" width="18.7692307692308" style="6" customWidth="1"/>
+    <col min="34" max="34" width="18.7692307692308" style="2" customWidth="1"/>
+    <col min="35" max="35" width="16.2307692307692" style="3" customWidth="1"/>
+    <col min="36" max="36" width="17.6153846153846" style="2" customWidth="1"/>
+    <col min="37" max="37" width="15.3076923076923" style="3" customWidth="1"/>
+    <col min="38" max="38" width="13.9230769230769" style="3" customWidth="1"/>
+    <col min="39" max="39" width="9.23076923076923" style="3" customWidth="1"/>
+    <col min="40" max="40" width="13.9230769230769" style="3" customWidth="1"/>
+    <col min="41" max="41" width="11.5384615384615" style="3" customWidth="1"/>
+    <col min="42" max="42" width="16.3846153846154" style="3" customWidth="1"/>
+    <col min="43" max="43" width="11.5384615384615" style="3" customWidth="1"/>
+    <col min="44" max="44" width="17.6153846153846" style="7" customWidth="1"/>
+    <col min="45" max="46" width="32.1538461538462" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:46">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="25" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AD1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AE1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AF1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AG1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="32" t="s">
+      <c r="AH1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AI1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AK1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AL1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AM1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AN1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AM1" s="41" t="s">
+      <c r="AO1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="48" t="s">
         <v>24</v>
       </c>
+      <c r="AQ1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="21" t="s">
+    <row r="2" ht="101" spans="1:44">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="K2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="L2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="M2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="O2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="P2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="Q2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="R2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="S2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="T2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="U2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="V2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="28"/>
+      <c r="W2" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="2"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="2"/>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="13" t="s">
-        <v>42</v>
+    <row r="3" spans="1:46">
+      <c r="A3" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>2022</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AN3" s="2"/>
+      <c r="C3" s="1">
+        <f>G3/E3</f>
+        <v>7.73733094326805</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D11" si="0">(C3-C4)/C4</f>
+        <v>0.104589290686371</v>
+      </c>
+      <c r="E3" s="20">
+        <v>9430920624</v>
+      </c>
+      <c r="F3" s="21">
+        <v>119233282761.47</v>
+      </c>
+      <c r="G3" s="21">
+        <v>72970153967.58</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(G3-G4)/G4</f>
+        <v>0.115843002240784</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="K3" s="25">
+        <v>7522315341.6</v>
+      </c>
+      <c r="M3" s="26">
+        <v>277255924.83</v>
+      </c>
+      <c r="N3" s="26">
+        <v>7569934.67</v>
+      </c>
+      <c r="O3" s="26">
+        <v>3343071972.89</v>
+      </c>
+      <c r="P3" s="26">
+        <v>68299685.57</v>
+      </c>
+      <c r="U3" s="26">
+        <v>1252033513.41</v>
+      </c>
+      <c r="W3" s="26">
+        <v>423893239.94</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>40011863999.94</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>12807438.36</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>SUM(J3:R3)</f>
+        <v>11218512859.56</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>SUM(S3:AB3)</f>
+        <v>41700598191.65</v>
+      </c>
+      <c r="AE3" s="5">
+        <f>G3+AC3</f>
+        <v>84188666827.14</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>14854951627.47</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" ref="AH3:AH11" si="1">(AG3-AG4)/AG4</f>
+        <v>-0.195647540868391</v>
+      </c>
+      <c r="AI3" s="26">
+        <v>14782659755.1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f t="shared" ref="AJ3:AJ11" si="2">(AI3-AI4)/AI4</f>
+        <v>-0.1998136585578</v>
+      </c>
+      <c r="AK3" s="26">
+        <v>-990401533.32</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="50">
+        <f>(AI3+AK3)/AE3</f>
+        <v>0.163825592464825</v>
+      </c>
+      <c r="AT3" s="50">
+        <f>AC3/AE3</f>
+        <v>0.133254430582615</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:46">
+      <c r="A4" s="15"/>
       <c r="B4" s="1">
         <v>2021</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="L4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AN4" s="2"/>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C14" si="3">G4/E4</f>
+        <v>7.00471298111194</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.201326430588304</v>
+      </c>
+      <c r="E4" s="20">
+        <v>9335806114</v>
+      </c>
+      <c r="F4" s="21">
+        <v>103864543195.18</v>
+      </c>
+      <c r="G4" s="21">
+        <v>65394642275.88</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H11" si="4">(G4-G5)/G5</f>
+        <v>0.200347839289416</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="K4" s="26">
+        <v>3284371642.52</v>
+      </c>
+      <c r="M4" s="26">
+        <v>317951879.21</v>
+      </c>
+      <c r="N4" s="26">
+        <v>9009331.5</v>
+      </c>
+      <c r="O4" s="26">
+        <v>4074962469.97</v>
+      </c>
+      <c r="P4" s="26">
+        <v>4062317.57</v>
+      </c>
+      <c r="U4" s="26">
+        <v>982165546.45</v>
+      </c>
+      <c r="W4" s="26">
+        <v>438724172.22</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>34721870931.36</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>34320010.83</v>
+      </c>
+      <c r="AC4" s="4">
+        <f t="shared" ref="AC4:AC13" si="5">SUM(J4:R4)</f>
+        <v>7690357640.77</v>
+      </c>
+      <c r="AD4" s="4">
+        <f t="shared" ref="AD4:AD13" si="6">SUM(S4:AB4)</f>
+        <v>36177080660.86</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" ref="AE4:AE13" si="7">G4+AC4</f>
+        <v>73084999916.65</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>18468211862.63</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.209208838715089</v>
+      </c>
+      <c r="AI4" s="26">
+        <v>18474021599.09</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.215662088253868</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>-133343257.84</v>
+      </c>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="50">
+        <f t="shared" ref="AS4:AS13" si="8">(AI4+AK4)/AE4</f>
+        <v>0.250949967327997</v>
+      </c>
+      <c r="AT4" s="50">
+        <f t="shared" ref="AT4:AT13" si="9">AC4/AE4</f>
+        <v>0.105224842984751</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:46">
+      <c r="A5" s="15"/>
       <c r="B5" s="1">
         <v>2020</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="L5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AN5" s="2"/>
+      <c r="C5" s="1">
+        <f t="shared" si="3"/>
+        <v>5.83081567403928</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.198275986516165</v>
+      </c>
+      <c r="E5" s="20">
+        <v>9343417190</v>
+      </c>
+      <c r="F5" s="21">
+        <v>88701682384.2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>54479743400.54</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.198071657164783</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1961167761.3</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26">
+        <v>39595459.35</v>
+      </c>
+      <c r="O5" s="26">
+        <v>3999246634.59</v>
+      </c>
+      <c r="P5" s="26">
+        <v>7405771.15</v>
+      </c>
+      <c r="U5" s="26">
+        <v>864026710.23</v>
+      </c>
+      <c r="W5" s="26">
+        <v>491939067.27</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>35459729108.27</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>22679846.77</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="5"/>
+        <v>6007415626.39</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="6"/>
+        <v>36838374732.54</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="7"/>
+        <v>60487159026.93</v>
+      </c>
+      <c r="AG5" s="42">
+        <v>15272971277.86</v>
+      </c>
+      <c r="AH5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.110320427448798</v>
+      </c>
+      <c r="AI5" s="26">
+        <v>15196674945.77</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.108635006746349</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>396254772.56</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="50">
+        <f t="shared" si="8"/>
+        <v>0.257789090596696</v>
+      </c>
+      <c r="AT5" s="50">
+        <f t="shared" si="9"/>
+        <v>0.0993172058835725</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:46">
+      <c r="A6" s="15"/>
       <c r="B6" s="1">
         <v>2019</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AN6" s="2"/>
+      <c r="C6" s="1">
+        <f t="shared" si="3"/>
+        <v>4.86600394203979</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.182693425465969</v>
+      </c>
+      <c r="E6" s="20">
+        <v>9345010696</v>
+      </c>
+      <c r="F6" s="21">
+        <v>75358000240.29</v>
+      </c>
+      <c r="G6" s="21">
+        <v>45472858885.14</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.197784625844505</v>
+      </c>
+      <c r="K6" s="26">
+        <v>4604168571.43</v>
+      </c>
+      <c r="N6" s="26">
+        <v>50181416.72</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2640082485.15</v>
+      </c>
+      <c r="P6" s="26">
+        <v>652428.18</v>
+      </c>
+      <c r="U6" s="26">
+        <v>252165321.49</v>
+      </c>
+      <c r="W6" s="26">
+        <v>312398267.44</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>27071948919.78</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>181.76</v>
+      </c>
+      <c r="AC6" s="4">
+        <f t="shared" si="5"/>
+        <v>7295084901.48</v>
+      </c>
+      <c r="AD6" s="4">
+        <f t="shared" si="6"/>
+        <v>27636512690.47</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="7"/>
+        <v>52767943786.62</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>13755462747.77</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.105883908266039</v>
+      </c>
+      <c r="AI6" s="26">
+        <v>13707554653.51</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.11121341236376</v>
+      </c>
+      <c r="AK6" s="26">
+        <v>-640068177.19</v>
+      </c>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="50">
+        <f t="shared" si="8"/>
+        <v>0.24764062304875</v>
+      </c>
+      <c r="AT6" s="50">
+        <f t="shared" si="9"/>
+        <v>0.138248420878014</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:46">
+      <c r="A7" s="15"/>
       <c r="B7" s="1">
         <v>2018</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AN7" s="2"/>
+      <c r="C7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.11434090801903</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.240705352379808</v>
+      </c>
+      <c r="E7" s="20">
+        <v>9227270473</v>
+      </c>
+      <c r="F7" s="21">
+        <v>63484352233.42</v>
+      </c>
+      <c r="G7" s="21">
+        <v>37964136376.42</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.240490972865168</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="K7" s="26">
+        <v>440000000</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26">
+        <v>3465655688.29</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26">
+        <v>290998.43</v>
+      </c>
+      <c r="S7" s="26">
+        <v>290966813</v>
+      </c>
+      <c r="U7" s="26">
+        <v>163301844.56</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>26552402711.23</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>1860050.59</v>
+      </c>
+      <c r="AC7" s="4">
+        <f t="shared" si="5"/>
+        <v>3905946686.72</v>
+      </c>
+      <c r="AD7" s="4">
+        <f t="shared" si="6"/>
+        <v>27008531419.38</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="7"/>
+        <v>41870083063.14</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>12438432863.48</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.186101438887299</v>
+      </c>
+      <c r="AI7" s="26">
+        <v>12335663429.72</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18122489635907</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>-424257896.76</v>
+      </c>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="50">
+        <f t="shared" si="8"/>
+        <v>0.284484879454326</v>
+      </c>
+      <c r="AT7" s="50">
+        <f t="shared" si="9"/>
+        <v>0.0932872925241118</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:46">
+      <c r="A8" s="15"/>
       <c r="B8" s="1">
         <v>2017</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AN8" s="2"/>
+      <c r="C8" s="1">
+        <f t="shared" si="3"/>
+        <v>3.31613053826783</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.173535257205339</v>
+      </c>
+      <c r="E8" s="20">
+        <v>9228865114</v>
+      </c>
+      <c r="F8" s="21">
+        <v>51570963466.61</v>
+      </c>
+      <c r="G8" s="21">
+        <v>30604121438.09</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.249827621817467</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="K8" s="26">
+        <v>490000000</v>
+      </c>
+      <c r="L8" s="26">
+        <v>3120920000</v>
+      </c>
+      <c r="N8" s="26">
+        <v>2437038.62</v>
+      </c>
+      <c r="O8" s="26">
+        <v>97114655.91</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26">
+        <v>15946836.46</v>
+      </c>
+      <c r="S8" s="26">
+        <v>287466813</v>
+      </c>
+      <c r="U8" s="26">
+        <v>130474733.58</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>16468430702.64</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>4100657.54</v>
+      </c>
+      <c r="AC8" s="4">
+        <f t="shared" si="5"/>
+        <v>3726418530.99</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="6"/>
+        <v>16890472906.76</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="7"/>
+        <v>34330539969.08</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>10486820482.36</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.261924839945254</v>
+      </c>
+      <c r="AI8" s="26">
+        <v>10443111610.45</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.528267459866715</v>
+      </c>
+      <c r="AK8" s="26">
+        <v>265411287.66</v>
+      </c>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="50">
+        <f t="shared" si="8"/>
+        <v>0.311924103371362</v>
+      </c>
+      <c r="AT8" s="50">
+        <f t="shared" si="9"/>
+        <v>0.108545293326182</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:46">
+      <c r="A9" s="15"/>
       <c r="B9" s="1">
         <v>2016</v>
       </c>
+      <c r="C9" s="1">
+        <f t="shared" si="3"/>
+        <v>4.01242831854442</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.268907177315778</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6102706885</v>
+      </c>
+      <c r="F9" s="21">
+        <v>41339007814.83</v>
+      </c>
+      <c r="G9" s="21">
+        <v>24486673925.15</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.268907177315778</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1722207584.33</v>
+      </c>
+      <c r="L9" s="26">
+        <v>2954449528.77</v>
+      </c>
+      <c r="N9" s="26">
+        <v>7000000</v>
+      </c>
+      <c r="O9" s="26">
+        <v>32291324.85</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>69789502.97</v>
+      </c>
+      <c r="S9" s="26">
+        <v>283836013</v>
+      </c>
+      <c r="U9" s="26">
+        <v>35000000</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>13638078139.56</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>15547537.34</v>
+      </c>
+      <c r="AC9" s="4">
+        <f t="shared" si="5"/>
+        <v>4785737940.92</v>
+      </c>
+      <c r="AD9" s="4">
+        <f t="shared" si="6"/>
+        <v>13972461689.9</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="7"/>
+        <v>29272411866.07</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>8310178348.51</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.231129921557922</v>
+      </c>
+      <c r="AI9" s="26">
+        <v>6833301031.85</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.243776690270962</v>
+      </c>
+      <c r="AK9" s="26">
+        <v>-226063754.62</v>
+      </c>
+      <c r="AS9" s="50">
+        <f t="shared" si="8"/>
+        <v>0.225715506718752</v>
+      </c>
+      <c r="AT9" s="50">
+        <f t="shared" si="9"/>
+        <v>0.163489703643696</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:46">
+      <c r="A10" s="15"/>
       <c r="B10" s="1">
         <v>2015</v>
       </c>
+      <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>3.16211334467525</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.146474713434933</v>
+      </c>
+      <c r="E10" s="20">
+        <v>6102706885</v>
+      </c>
+      <c r="F10" s="21">
+        <v>30316442436.17</v>
+      </c>
+      <c r="G10" s="21">
+        <v>19297450879.7</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.296945214495618</v>
+      </c>
+      <c r="K10" s="26">
+        <v>675753935</v>
+      </c>
+      <c r="N10" s="26">
+        <v>7000000</v>
+      </c>
+      <c r="O10" s="26">
+        <v>876600473.94</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>19281989.69</v>
+      </c>
+      <c r="S10" s="26">
+        <v>56033513</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>10106500588.53</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>6160279.18</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="5"/>
+        <v>1578636398.63</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="6"/>
+        <v>10168694380.71</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" si="7"/>
+        <v>20876087278.33</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>6750041732.39</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.296503620331771</v>
+      </c>
+      <c r="AI10" s="26">
+        <v>5493993483.96</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.255034365339369</v>
+      </c>
+      <c r="AK10" s="26">
+        <v>-152896391.7</v>
+      </c>
+      <c r="AS10" s="50">
+        <f t="shared" si="8"/>
+        <v>0.255847612679998</v>
+      </c>
+      <c r="AT10" s="50">
+        <f t="shared" si="9"/>
+        <v>0.075619361884383</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:46">
+      <c r="A11" s="15"/>
       <c r="B11" s="1">
         <v>2014</v>
       </c>
+      <c r="C11" s="1">
+        <f t="shared" si="3"/>
+        <v>3.70476820599057</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33926902525374</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4016217944</v>
+      </c>
+      <c r="F11" s="21">
+        <v>21290520311.29</v>
+      </c>
+      <c r="G11" s="21">
+        <v>14879156547.26</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.338933883885495</v>
+      </c>
+      <c r="K11" s="26">
+        <v>244760000</v>
+      </c>
+      <c r="N11" s="26">
+        <v>3000000</v>
+      </c>
+      <c r="O11" s="26">
+        <v>362317989.11</v>
+      </c>
+      <c r="S11" s="26">
+        <v>604313</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>7199658946.19</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>3032932.74</v>
+      </c>
+      <c r="AC11" s="4">
+        <f t="shared" si="5"/>
+        <v>610077989.11</v>
+      </c>
+      <c r="AD11" s="4">
+        <f t="shared" si="6"/>
+        <v>7203296191.93</v>
+      </c>
+      <c r="AE11" s="5">
+        <f t="shared" si="7"/>
+        <v>15489234536.37</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>5206342370.77</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.537629230714593</v>
+      </c>
+      <c r="AI11" s="26">
+        <v>4377564181.26</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.485454419576104</v>
+      </c>
+      <c r="AK11" s="26">
+        <v>-82029433.48</v>
+      </c>
+      <c r="AS11" s="50">
+        <f t="shared" si="8"/>
+        <v>0.277323888258889</v>
+      </c>
+      <c r="AT11" s="50">
+        <f t="shared" si="9"/>
+        <v>0.039387226507384</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:46">
+      <c r="A12" s="15"/>
       <c r="B12" s="1">
         <v>2013</v>
       </c>
+      <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.76626139792089</v>
+      </c>
+      <c r="D12" s="2">
+        <f>(C12-C13)/C13</f>
+        <v>-0.359234108865259</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4017223222</v>
+      </c>
+      <c r="F12" s="21">
+        <v>14071528034.19</v>
+      </c>
+      <c r="G12" s="21">
+        <v>11112689525.85</v>
+      </c>
+      <c r="H12" s="2">
+        <f>(G12-G13)/G13</f>
+        <v>0.281531782269481</v>
+      </c>
+      <c r="O12" s="26">
+        <v>180799798.2</v>
+      </c>
+      <c r="S12" s="26">
+        <v>604313</v>
+      </c>
+      <c r="U12" s="26">
+        <v>403741.3</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>4592606345.6</v>
+      </c>
+      <c r="AC12" s="4">
+        <f t="shared" si="5"/>
+        <v>180799798.2</v>
+      </c>
+      <c r="AD12" s="4">
+        <f t="shared" si="6"/>
+        <v>4593614399.9</v>
+      </c>
+      <c r="AE12" s="5">
+        <f t="shared" si="7"/>
+        <v>11293489324.05</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>3385954342.42</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>(AG12-AG13)/AG13</f>
+        <v>0.463496748370252</v>
+      </c>
+      <c r="AI12" s="26">
+        <v>2946952880.93</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f>(AI12-AI13)/AI13</f>
+        <v>0.499750027434592</v>
+      </c>
+      <c r="AK12" s="26">
+        <v>-86557861.84</v>
+      </c>
+      <c r="AS12" s="50">
+        <f t="shared" si="8"/>
+        <v>0.253278232884026</v>
+      </c>
+      <c r="AT12" s="50">
+        <f t="shared" si="9"/>
+        <v>0.0160092061020484</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:46">
+      <c r="A13" s="16"/>
       <c r="B13" s="1">
         <v>2012</v>
       </c>
-      <c r="AH13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="C13" s="1">
+        <f t="shared" si="3"/>
+        <v>4.31711711904965</v>
+      </c>
+      <c r="E13" s="22">
+        <v>2008611611</v>
+      </c>
+      <c r="F13" s="21">
+        <v>10589486239.71</v>
+      </c>
+      <c r="G13" s="21">
+        <v>8671411571.37</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="N13" s="26">
+        <v>3000000</v>
+      </c>
+      <c r="T13" s="26">
+        <v>300000000</v>
+      </c>
+      <c r="U13" s="26">
+        <v>1462726.94</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>5534759469.2</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="AD13" s="4">
+        <f t="shared" si="6"/>
+        <v>5836222196.14</v>
+      </c>
+      <c r="AE13" s="5">
+        <f t="shared" si="7"/>
+        <v>8674411571.37</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>2313605647.7</v>
+      </c>
+      <c r="AI13" s="26">
+        <v>1964962711.8</v>
+      </c>
+      <c r="AK13" s="26">
+        <v>-46572865.46</v>
+      </c>
+      <c r="AL13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AS13" s="50">
+        <f t="shared" si="8"/>
+        <v>0.221155040956515</v>
+      </c>
+      <c r="AT13" s="50">
+        <f t="shared" si="9"/>
+        <v>0.000345844784434893</v>
+      </c>
+    </row>
+    <row r="14" spans="3:45">
+      <c r="C14" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS14" s="50"/>
+    </row>
+    <row r="15" spans="45:45">
+      <c r="AS15" s="50"/>
+    </row>
+    <row r="16" spans="45:45">
+      <c r="AS16" s="50"/>
+    </row>
+    <row r="17" spans="45:45">
+      <c r="AS17" s="50"/>
+    </row>
+    <row r="18" spans="45:45">
+      <c r="AS18" s="50"/>
+    </row>
+    <row r="19" spans="45:45">
+      <c r="AS19" s="50"/>
+    </row>
+    <row r="20" spans="45:45">
+      <c r="AS20" s="50"/>
+    </row>
+    <row r="21" spans="45:45">
+      <c r="AS21" s="50"/>
+    </row>
+    <row r="22" spans="45:45">
+      <c r="AS22" s="50"/>
+    </row>
+    <row r="23" spans="45:45">
+      <c r="AS23" s="50"/>
+    </row>
+    <row r="24" spans="45:45">
+      <c r="AS24" s="50"/>
+    </row>
+    <row r="25" spans="45:45">
+      <c r="AS25" s="50"/>
+    </row>
+    <row r="26" spans="45:45">
+      <c r="AS26" s="50"/>
+    </row>
+    <row r="27" spans="45:45">
+      <c r="AS27" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:Y1"/>
+  <mergeCells count="30">
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="S1:AB1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="B1:B2"/>
@@ -1700,9 +2649,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
@@ -1715,6 +2662,12 @@
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
